--- a/Location Details/S Meridian St, Indianapolis, IN 46225_expos.xlsx
+++ b/Location Details/S Meridian St, Indianapolis, IN 46225_expos.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E59"/>
+  <dimension ref="A1:F59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,10 +446,15 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>price_level</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>rating</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>user_ratings_total</t>
         </is>
@@ -457,7 +462,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -469,10 +474,11 @@
           <t>A Classic Expo Design</t>
         </is>
       </c>
-      <c r="D2" t="n">
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="n">
         <v>3</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -490,10 +496,11 @@
           <t>Aesthetically Sew</t>
         </is>
       </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
+      <c r="D3" t="inlineStr"/>
       <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -511,10 +518,11 @@
           <t>AgTech Expo</t>
         </is>
       </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
+      <c r="D4" t="inlineStr"/>
       <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -532,16 +540,17 @@
           <t>American Rodent Supply</t>
         </is>
       </c>
-      <c r="D5" t="n">
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="n">
         <v>4.6</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>28</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -553,10 +562,11 @@
           <t>Biltwell Event Center</t>
         </is>
       </c>
-      <c r="D6" t="n">
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="n">
         <v>4.7</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>373</v>
       </c>
     </row>
@@ -574,16 +584,17 @@
           <t>Cabinet and Stone Expo</t>
         </is>
       </c>
-      <c r="D7" t="n">
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="n">
         <v>4.6</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>31</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -595,10 +606,11 @@
           <t>Circle City Coatings</t>
         </is>
       </c>
-      <c r="D8" t="n">
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="n">
         <v>4.6</v>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
         <v>19</v>
       </c>
     </row>
@@ -616,11 +628,12 @@
           <t>Convention center</t>
         </is>
       </c>
-      <c r="D9" t="n">
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="n">
         <v>4.6</v>
       </c>
-      <c r="E9" t="n">
-        <v>472</v>
+      <c r="F9" t="n">
+        <v>473</v>
       </c>
     </row>
     <row r="10">
@@ -637,10 +650,11 @@
           <t>Core &amp; Main</t>
         </is>
       </c>
-      <c r="D10" t="n">
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="n">
         <v>4.3</v>
       </c>
-      <c r="E10" t="n">
+      <c r="F10" t="n">
         <v>3</v>
       </c>
     </row>
@@ -658,16 +672,17 @@
           <t>Creation Evidence Expo</t>
         </is>
       </c>
-      <c r="D11" t="n">
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="n">
         <v>4.8</v>
       </c>
-      <c r="E11" t="n">
+      <c r="F11" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -679,10 +694,11 @@
           <t>Curtain Call Dance Center</t>
         </is>
       </c>
-      <c r="D12" t="n">
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="n">
         <v>4.4</v>
       </c>
-      <c r="E12" t="n">
+      <c r="F12" t="n">
         <v>9</v>
       </c>
     </row>
@@ -700,10 +716,11 @@
           <t>Curvature Expo</t>
         </is>
       </c>
-      <c r="D13" t="n">
-        <v>0</v>
-      </c>
+      <c r="D13" t="inlineStr"/>
       <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
         <v>0</v>
       </c>
     </row>
@@ -721,16 +738,17 @@
           <t>Don Mitchell Pro Shop</t>
         </is>
       </c>
-      <c r="D14" t="n">
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="n">
         <v>3.3</v>
       </c>
-      <c r="E14" t="n">
+      <c r="F14" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -742,16 +760,17 @@
           <t>Don Mitchell Pro Shops</t>
         </is>
       </c>
-      <c r="D15" t="n">
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="n">
         <v>4.4</v>
       </c>
-      <c r="E15" t="n">
+      <c r="F15" t="n">
         <v>16</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -760,19 +779,20 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Elements Financial Pavilion</t>
-        </is>
-      </c>
-      <c r="D16" t="n">
-        <v>4.3</v>
-      </c>
+          <t>Elegant Stylez</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr"/>
       <c r="E16" t="n">
-        <v>87</v>
+        <v>3.1</v>
+      </c>
+      <c r="F16" t="n">
+        <v>3696</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -781,14 +801,15 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>European Wax Center</t>
-        </is>
-      </c>
-      <c r="D17" t="n">
-        <v>4.4</v>
-      </c>
+          <t>Elements Financial Pavilion</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr"/>
       <c r="E17" t="n">
-        <v>200</v>
+        <v>4.3</v>
+      </c>
+      <c r="F17" t="n">
+        <v>87</v>
       </c>
     </row>
     <row r="18">
@@ -805,16 +826,17 @@
           <t>Expo Arts</t>
         </is>
       </c>
-      <c r="D18" t="n">
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="n">
         <v>2.5</v>
       </c>
-      <c r="E18" t="n">
+      <c r="F18" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -823,19 +845,22 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Fern</t>
+          <t>FYE</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>4.3</v>
+        <v>2</v>
       </c>
       <c r="E19" t="n">
-        <v>34</v>
+        <v>4.1</v>
+      </c>
+      <c r="F19" t="n">
+        <v>638</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -844,19 +869,20 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Floor &amp; Decor</t>
-        </is>
-      </c>
-      <c r="D20" t="n">
+          <t>Fern</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="n">
         <v>4.3</v>
       </c>
-      <c r="E20" t="n">
-        <v>14</v>
+      <c r="F20" t="n">
+        <v>34</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -865,19 +891,20 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Food Specialties Inc</t>
-        </is>
-      </c>
-      <c r="D21" t="n">
-        <v>0</v>
-      </c>
+          <t>Floor &amp; Decor</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr"/>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>4.4</v>
+      </c>
+      <c r="F21" t="n">
+        <v>281</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -886,14 +913,15 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Free Stage</t>
-        </is>
-      </c>
-      <c r="D22" t="n">
-        <v>4.6</v>
-      </c>
+          <t>Food Specialties Inc</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr"/>
       <c r="E22" t="n">
-        <v>361</v>
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -910,10 +938,11 @@
           <t>Great Day Tattoo</t>
         </is>
       </c>
-      <c r="D23" t="n">
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="n">
         <v>5</v>
       </c>
-      <c r="E23" t="n">
+      <c r="F23" t="n">
         <v>18</v>
       </c>
     </row>
@@ -931,10 +960,11 @@
           <t>Harvest Pavillion</t>
         </is>
       </c>
-      <c r="D24" t="n">
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="n">
         <v>4.6</v>
       </c>
-      <c r="E24" t="n">
+      <c r="F24" t="n">
         <v>18</v>
       </c>
     </row>
@@ -952,10 +982,11 @@
           <t>Hoosier Lottery Hall</t>
         </is>
       </c>
-      <c r="D25" t="n">
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="n">
         <v>5</v>
       </c>
-      <c r="E25" t="n">
+      <c r="F25" t="n">
         <v>3</v>
       </c>
     </row>
@@ -973,10 +1004,11 @@
           <t>Hoosier Trim Products</t>
         </is>
       </c>
-      <c r="D26" t="n">
+      <c r="D26" t="inlineStr"/>
+      <c r="E26" t="n">
         <v>4.7</v>
       </c>
-      <c r="E26" t="n">
+      <c r="F26" t="n">
         <v>3</v>
       </c>
     </row>
@@ -994,10 +1026,11 @@
           <t>INKSTINCT TATTOO</t>
         </is>
       </c>
-      <c r="D27" t="n">
+      <c r="D27" t="inlineStr"/>
+      <c r="E27" t="n">
         <v>4.8</v>
       </c>
-      <c r="E27" t="n">
+      <c r="F27" t="n">
         <v>116</v>
       </c>
     </row>
@@ -1015,10 +1048,11 @@
           <t>Indiana Black Expo Inc</t>
         </is>
       </c>
-      <c r="D28" t="n">
+      <c r="D28" t="inlineStr"/>
+      <c r="E28" t="n">
         <v>4.3</v>
       </c>
-      <c r="E28" t="n">
+      <c r="F28" t="n">
         <v>39</v>
       </c>
     </row>
@@ -1036,11 +1070,12 @@
           <t>Indiana Convention Center</t>
         </is>
       </c>
-      <c r="D29" t="n">
+      <c r="D29" t="inlineStr"/>
+      <c r="E29" t="n">
         <v>4.5</v>
       </c>
-      <c r="E29" t="n">
-        <v>527</v>
+      <c r="F29" t="n">
+        <v>528</v>
       </c>
     </row>
     <row r="30">
@@ -1057,10 +1092,11 @@
           <t>Indiana Fishing Expo</t>
         </is>
       </c>
-      <c r="D30" t="n">
-        <v>0</v>
-      </c>
+      <c r="D30" t="inlineStr"/>
       <c r="E30" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1078,10 +1114,11 @@
           <t>Indiana Flower &amp; Patio Show</t>
         </is>
       </c>
-      <c r="D31" t="n">
+      <c r="D31" t="inlineStr"/>
+      <c r="E31" t="n">
         <v>4.3</v>
       </c>
-      <c r="E31" t="n">
+      <c r="F31" t="n">
         <v>60</v>
       </c>
     </row>
@@ -1099,16 +1136,17 @@
           <t>Indiana Latino Expo</t>
         </is>
       </c>
-      <c r="D32" t="n">
-        <v>0</v>
-      </c>
+      <c r="D32" t="inlineStr"/>
       <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
@@ -1120,10 +1158,11 @@
           <t>Indiana State Fairgrounds &amp; Event Center</t>
         </is>
       </c>
-      <c r="D33" t="n">
+      <c r="D33" t="inlineStr"/>
+      <c r="E33" t="n">
         <v>4.4</v>
       </c>
-      <c r="E33" t="n">
+      <c r="F33" t="n">
         <v>1344</v>
       </c>
     </row>
@@ -1141,10 +1180,11 @@
           <t>Indiana State Numismatic Association</t>
         </is>
       </c>
-      <c r="D34" t="n">
-        <v>0</v>
-      </c>
+      <c r="D34" t="inlineStr"/>
       <c r="E34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1162,10 +1202,11 @@
           <t>Indianapolis Auto Show</t>
         </is>
       </c>
-      <c r="D35" t="n">
+      <c r="D35" t="inlineStr"/>
+      <c r="E35" t="n">
         <v>3.1</v>
       </c>
-      <c r="E35" t="n">
+      <c r="F35" t="n">
         <v>51</v>
       </c>
     </row>
@@ -1183,10 +1224,11 @@
           <t>Indianapolis Chapter of Indiana Black Expo, Inc.</t>
         </is>
       </c>
-      <c r="D36" t="n">
-        <v>0</v>
-      </c>
+      <c r="D36" t="inlineStr"/>
       <c r="E36" t="n">
+        <v>0</v>
+      </c>
+      <c r="F36" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1204,10 +1246,11 @@
           <t>Indianapolis Competition Products</t>
         </is>
       </c>
-      <c r="D37" t="n">
-        <v>0</v>
-      </c>
+      <c r="D37" t="inlineStr"/>
       <c r="E37" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1225,10 +1268,11 @@
           <t>Indianapolis Motor Speedway</t>
         </is>
       </c>
-      <c r="D38" t="n">
+      <c r="D38" t="inlineStr"/>
+      <c r="E38" t="n">
         <v>4.8</v>
       </c>
-      <c r="E38" t="n">
+      <c r="F38" t="n">
         <v>11013</v>
       </c>
     </row>
@@ -1246,10 +1290,11 @@
           <t>Indy Air Expo</t>
         </is>
       </c>
-      <c r="D39" t="n">
-        <v>0</v>
-      </c>
+      <c r="D39" t="inlineStr"/>
       <c r="E39" t="n">
+        <v>0</v>
+      </c>
+      <c r="F39" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1267,11 +1312,12 @@
           <t>Ink Therapy Tattoo</t>
         </is>
       </c>
-      <c r="D40" t="n">
+      <c r="D40" t="inlineStr"/>
+      <c r="E40" t="n">
         <v>4.7</v>
       </c>
-      <c r="E40" t="n">
-        <v>351</v>
+      <c r="F40" t="n">
+        <v>352</v>
       </c>
     </row>
     <row r="41">
@@ -1288,10 +1334,11 @@
           <t>Its A Block Party</t>
         </is>
       </c>
-      <c r="D41" t="n">
+      <c r="D41" t="inlineStr"/>
+      <c r="E41" t="n">
         <v>4.7</v>
       </c>
-      <c r="E41" t="n">
+      <c r="F41" t="n">
         <v>86</v>
       </c>
     </row>
@@ -1309,10 +1356,11 @@
           <t>Laser Storm</t>
         </is>
       </c>
-      <c r="D42" t="n">
+      <c r="D42" t="inlineStr"/>
+      <c r="E42" t="n">
         <v>4</v>
       </c>
-      <c r="E42" t="n">
+      <c r="F42" t="n">
         <v>51</v>
       </c>
     </row>
@@ -1330,10 +1378,11 @@
           <t>Nail Expo</t>
         </is>
       </c>
-      <c r="D43" t="n">
+      <c r="D43" t="inlineStr"/>
+      <c r="E43" t="n">
         <v>3.2</v>
       </c>
-      <c r="E43" t="n">
+      <c r="F43" t="n">
         <v>62</v>
       </c>
     </row>
@@ -1351,10 +1400,11 @@
           <t>National Expo, Inc</t>
         </is>
       </c>
-      <c r="D44" t="n">
+      <c r="D44" t="inlineStr"/>
+      <c r="E44" t="n">
         <v>5</v>
       </c>
-      <c r="E44" t="n">
+      <c r="F44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1372,10 +1422,11 @@
           <t>Off Road Expo</t>
         </is>
       </c>
-      <c r="D45" t="n">
-        <v>0</v>
-      </c>
+      <c r="D45" t="inlineStr"/>
       <c r="E45" t="n">
+        <v>0</v>
+      </c>
+      <c r="F45" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1393,10 +1444,11 @@
           <t>Pan Am Tower</t>
         </is>
       </c>
-      <c r="D46" t="n">
+      <c r="D46" t="inlineStr"/>
+      <c r="E46" t="n">
         <v>4.3</v>
       </c>
-      <c r="E46" t="n">
+      <c r="F46" t="n">
         <v>28</v>
       </c>
     </row>
@@ -1414,10 +1466,11 @@
           <t>Premier Surface</t>
         </is>
       </c>
-      <c r="D47" t="n">
-        <v>0</v>
-      </c>
+      <c r="D47" t="inlineStr"/>
       <c r="E47" t="n">
+        <v>0</v>
+      </c>
+      <c r="F47" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1435,10 +1488,11 @@
           <t>Purdue Extension / Horticulture Building</t>
         </is>
       </c>
-      <c r="D48" t="n">
+      <c r="D48" t="inlineStr"/>
+      <c r="E48" t="n">
         <v>4.4</v>
       </c>
-      <c r="E48" t="n">
+      <c r="F48" t="n">
         <v>36</v>
       </c>
     </row>
@@ -1456,10 +1510,11 @@
           <t>Roberts Camera</t>
         </is>
       </c>
-      <c r="D49" t="n">
+      <c r="D49" t="inlineStr"/>
+      <c r="E49" t="n">
         <v>4.7</v>
       </c>
-      <c r="E49" t="n">
+      <c r="F49" t="n">
         <v>518</v>
       </c>
     </row>
@@ -1477,10 +1532,11 @@
           <t>Royal Pin Expo</t>
         </is>
       </c>
-      <c r="D50" t="n">
+      <c r="D50" t="inlineStr"/>
+      <c r="E50" t="n">
         <v>4.2</v>
       </c>
-      <c r="E50" t="n">
+      <c r="F50" t="n">
         <v>1025</v>
       </c>
     </row>
@@ -1498,11 +1554,12 @@
           <t>Royal Pin Western</t>
         </is>
       </c>
-      <c r="D51" t="n">
+      <c r="D51" t="inlineStr"/>
+      <c r="E51" t="n">
         <v>4.4</v>
       </c>
-      <c r="E51" t="n">
-        <v>1181</v>
+      <c r="F51" t="n">
+        <v>1182</v>
       </c>
     </row>
     <row r="52">
@@ -1519,10 +1576,11 @@
           <t>Samps Hack Shack Brownsburg</t>
         </is>
       </c>
-      <c r="D52" t="n">
+      <c r="D52" t="inlineStr"/>
+      <c r="E52" t="n">
         <v>4.9</v>
       </c>
-      <c r="E52" t="n">
+      <c r="F52" t="n">
         <v>22</v>
       </c>
     </row>
@@ -1540,16 +1598,17 @@
           <t>Samps Hack Shack Plainfield</t>
         </is>
       </c>
-      <c r="D53" t="n">
+      <c r="D53" t="inlineStr"/>
+      <c r="E53" t="n">
         <v>5</v>
       </c>
-      <c r="E53" t="n">
+      <c r="F53" t="n">
         <v>9</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
@@ -1561,10 +1620,11 @@
           <t>Shepard Events</t>
         </is>
       </c>
-      <c r="D54" t="n">
+      <c r="D54" t="inlineStr"/>
+      <c r="E54" t="n">
         <v>3</v>
       </c>
-      <c r="E54" t="n">
+      <c r="F54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1582,16 +1642,17 @@
           <t>Shepard Exposition Services</t>
         </is>
       </c>
-      <c r="D55" t="n">
-        <v>0</v>
-      </c>
+      <c r="D55" t="inlineStr"/>
       <c r="E55" t="n">
+        <v>0</v>
+      </c>
+      <c r="F55" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
@@ -1603,16 +1664,17 @@
           <t>The Indiana Convention center</t>
         </is>
       </c>
-      <c r="D56" t="n">
+      <c r="D56" t="inlineStr"/>
+      <c r="E56" t="n">
         <v>4.7</v>
       </c>
-      <c r="E56" t="n">
+      <c r="F56" t="n">
         <v>21</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
@@ -1624,10 +1686,11 @@
           <t>The Korner Garage</t>
         </is>
       </c>
-      <c r="D57" t="n">
+      <c r="D57" t="inlineStr"/>
+      <c r="E57" t="n">
         <v>4.5</v>
       </c>
-      <c r="E57" t="n">
+      <c r="F57" t="n">
         <v>6</v>
       </c>
     </row>
@@ -1645,10 +1708,11 @@
           <t>The Nest Event Center</t>
         </is>
       </c>
-      <c r="D58" t="n">
+      <c r="D58" t="inlineStr"/>
+      <c r="E58" t="n">
         <v>4.8</v>
       </c>
-      <c r="E58" t="n">
+      <c r="F58" t="n">
         <v>98</v>
       </c>
     </row>
@@ -1666,10 +1730,11 @@
           <t>West Pavilion</t>
         </is>
       </c>
-      <c r="D59" t="n">
+      <c r="D59" t="inlineStr"/>
+      <c r="E59" t="n">
         <v>4.3</v>
       </c>
-      <c r="E59" t="n">
+      <c r="F59" t="n">
         <v>33</v>
       </c>
     </row>
